--- a/Cypher/Insert_Geometry.xlsx
+++ b/Cypher/Insert_Geometry.xlsx
@@ -1,14 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\AMTDC\Project\Cypher\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9252" activeTab="1"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Trade_name" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="sub_nodes" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="rel_tn_sub_nodes" sheetId="3" r:id="rId6"/>
+    <sheet name="Trade_name" sheetId="1" r:id="rId1"/>
+    <sheet name="sub_nodes" sheetId="2" r:id="rId2"/>
+    <sheet name="rel_tn_sub_nodes" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -42,16 +50,6 @@
     <t>Square insert</t>
   </si>
   <si>
-    <t>The square insert has4cutting edges per side.If
-the insert is negative then it is possible to useatotal
-of8corners.Thus making this style of insert very
-economical.The insert hasacutting edge angle of
-90°so it has high cutting edge strength.However,
-the square insert needsaside cutting edge angle to
-machine and and such can not be used for
-machiningaright angle.</t>
-  </si>
-  <si>
     <t>CREATE(n20:SNMG{id: 20,property1: 'Square insert' ,property2: 'The square insert has4cutting edges per side.If the insert is negative then it is possible to useatotal of 8corners.Thus making this style of insert very
 economical.The insert hasacutting edge angle of 90°so it has high cutting edge strength.However, the square insert needsaside cutting edge angle to machine and and such can not be used for machiningaright angle.' });</t>
   </si>
@@ -62,27 +60,25 @@
     <t>Triangular</t>
   </si>
   <si>
-    <t>The triangular insert has3cutting edges per side.It
-has less corners than the square type,but is
-effective in machining right angles and for copy
-machining(copying).This insert hasacutting edge
-point angle of 60°and therefore it has less cutting
-edge strength when compared toasquare insert.</t>
-  </si>
-  <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">CREATE(n31:TNMG{id: 31,property1: 'Triangular' ,property2: 'The triangular insert has3cutting edges per </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>side. It</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> has less corners than the square type,but is effective in machining right angles and for copy machining(copying).This insert hasacutting edge point angle of 60°and therefore it has less cutting edge strength when compared toasquare insert..' });</t>
     </r>
   </si>
@@ -210,35 +206,64 @@
   <si>
     <t>MATCH(a{id:1}),(b{id:72}) MERGE(a)-[:type]-&gt;(b);</t>
   </si>
+  <si>
+    <t>The square insert has4cutting edges per side.If
+the insert is negative then it is possible to use a total
+of 8 corners.Thus making this style of insert very
+economical.The insert hasacutting edge angle of
+90° so it has high cutting edge strength.However,
+the square insert needs a side cutting edge angle to
+machine and and such can not be used for
+machining a right angle.</t>
+  </si>
+  <si>
+    <t>The triangular insert has 3 cutting edges per side.It
+has less corners than the square type,but is
+effective in machining right angles and for copy
+machining(copying).This insert hasacutting edge
+point angle of 60°and therefore it has less cutting
+edge strength when compared toasquare insert.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -247,7 +272,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -257,49 +282,47 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -489,24 +512,27 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFCE5CD"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="5" max="5" width="70.63"/>
+    <col min="5" max="5" width="70.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,38 +545,41 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFCE5CD"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="4" max="4" width="42.88"/>
-    <col customWidth="1" min="5" max="5" width="70.63"/>
+    <col min="4" max="4" width="42.88671875" customWidth="1"/>
+    <col min="5" max="5" width="70.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,259 +596,260 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2">
-        <v>31.0</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="B4" s="2">
+        <v>41</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2">
-        <v>41.0</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="B5" s="2">
+        <v>51</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2">
-        <v>51.0</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="B6" s="2">
+        <v>61</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="2">
-        <v>61.0</v>
-      </c>
-      <c r="C6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="B7" s="2">
+        <v>71</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="2">
-        <v>71.0</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2">
+        <v>72</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="2">
-        <v>72.0</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="E3"/>
+    <hyperlink ref="E3" r:id="rId1"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="4" max="4" width="37.63"/>
+    <col min="4" max="4" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>20.0</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="2" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>41</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="2">
-        <v>31.0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>51</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B4" s="2">
-        <v>41.0</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="4" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>61</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B5" s="2">
-        <v>51.0</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="4" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>71</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B6" s="2">
-        <v>61.0</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="4" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>72</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B7" s="2">
-        <v>71.0</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B8" s="2">
-        <v>72.0</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>